--- a/src/analysis_examples/circadb/results_lomb/cosinor_10424221_wdr67_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10424221_wdr67_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23510430698979806, 0.32388540993962606]</t>
+          <t>[0.23550135524294807, 0.32348836168647604]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.433786422921912e-11</v>
+        <v>1.210676003893241e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>1.433786422921912e-11</v>
+        <v>1.210676003893241e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5031579825569237</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.6541053773240009, -0.3522105877898465]</t>
+          <t>[-0.6666843268879239, -0.33963163822592346]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.556810550646276e-07</v>
+        <v>2.418693967332075e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>7.556810550646276e-07</v>
+        <v>2.418693967332075e-06</v>
       </c>
       <c r="S2" t="n">
         <v>0.5329642833752235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5095719901240224, 0.5563565766264246]</t>
+          <t>[0.5095754971919404, 0.5563530695585066]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.172572572572662</v>
       </c>
       <c r="X2" t="n">
-        <v>1.520800800800863</v>
+        <v>1.466486486486547</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.82434434434446</v>
+        <v>2.878658658658777</v>
       </c>
     </row>
   </sheetData>
